--- a/data/pca/factorExposure/factorExposure_2013-05-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-17.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.00149571494310263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002022181403158103</v>
+      </c>
+      <c r="C2">
+        <v>-0.03224351465564081</v>
+      </c>
+      <c r="D2">
+        <v>-0.004810266987645302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001964762236353282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006107628894205947</v>
+      </c>
+      <c r="C4">
+        <v>-0.08459362536113478</v>
+      </c>
+      <c r="D4">
+        <v>-0.07888404762257127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0002044853900381458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01355662099944815</v>
+      </c>
+      <c r="C6">
+        <v>-0.1077169182739144</v>
+      </c>
+      <c r="D6">
+        <v>-0.03509694496506063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001756128650201152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004802194635903388</v>
+      </c>
+      <c r="C7">
+        <v>-0.05282890189020908</v>
+      </c>
+      <c r="D7">
+        <v>-0.03887479097088875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001621276901537174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005683804148552845</v>
+      </c>
+      <c r="C8">
+        <v>-0.03651939397195589</v>
+      </c>
+      <c r="D8">
+        <v>-0.0388399148059136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004942729773499462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004051375362058175</v>
+      </c>
+      <c r="C9">
+        <v>-0.06939881843884722</v>
+      </c>
+      <c r="D9">
+        <v>-0.07094810209896836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.003053050754233015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.00570856678793361</v>
+      </c>
+      <c r="C10">
+        <v>-0.07438462641896616</v>
+      </c>
+      <c r="D10">
+        <v>0.2105258572290251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.0041668239327067</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005157549722076686</v>
+      </c>
+      <c r="C11">
+        <v>-0.07830398608760551</v>
+      </c>
+      <c r="D11">
+        <v>-0.06507348466518179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0003860652135635611</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003856258883469985</v>
+      </c>
+      <c r="C12">
+        <v>-0.06356291393921247</v>
+      </c>
+      <c r="D12">
+        <v>-0.04698990730471372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003417255840040079</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008644202795801637</v>
+      </c>
+      <c r="C13">
+        <v>-0.06869024388622112</v>
+      </c>
+      <c r="D13">
+        <v>-0.06865256185245348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002606390146646154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001598924910739264</v>
+      </c>
+      <c r="C14">
+        <v>-0.04675313679004543</v>
+      </c>
+      <c r="D14">
+        <v>-0.01457318168789574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.002616948845172512</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005904836144232718</v>
+      </c>
+      <c r="C15">
+        <v>-0.038877523041801</v>
+      </c>
+      <c r="D15">
+        <v>-0.03748308272787791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002347723641359831</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004865644977925896</v>
+      </c>
+      <c r="C16">
+        <v>-0.06422332171898933</v>
+      </c>
+      <c r="D16">
+        <v>-0.04954837960573073</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-9.755593721092437e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009015426630300142</v>
+      </c>
+      <c r="C20">
+        <v>-0.06471207981029829</v>
+      </c>
+      <c r="D20">
+        <v>-0.05676470764154033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.00401093509713674</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009977489287298229</v>
+      </c>
+      <c r="C21">
+        <v>-0.02360181929856266</v>
+      </c>
+      <c r="D21">
+        <v>-0.03481660065855074</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01663453948354878</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006823678237843507</v>
+      </c>
+      <c r="C22">
+        <v>-0.09214898773778653</v>
+      </c>
+      <c r="D22">
+        <v>-0.09650842302361733</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01697954000243564</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006614901698178855</v>
+      </c>
+      <c r="C23">
+        <v>-0.09318168177825281</v>
+      </c>
+      <c r="D23">
+        <v>-0.09707740963128852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003003807618942965</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.00476146355398838</v>
+      </c>
+      <c r="C24">
+        <v>-0.07275859140163785</v>
+      </c>
+      <c r="D24">
+        <v>-0.06158413512319146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004592989834192469</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002763941264617904</v>
+      </c>
+      <c r="C25">
+        <v>-0.07714029922815357</v>
+      </c>
+      <c r="D25">
+        <v>-0.06601127341136304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006153225811798013</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003571378680657351</v>
+      </c>
+      <c r="C26">
+        <v>-0.04080157387662717</v>
+      </c>
+      <c r="D26">
+        <v>-0.02776224055151758</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007169900251276696</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0003009061277268899</v>
+      </c>
+      <c r="C28">
+        <v>-0.125797317608015</v>
+      </c>
+      <c r="D28">
+        <v>0.3097681483350997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.002450187986850087</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003291068123213562</v>
+      </c>
+      <c r="C29">
+        <v>-0.04825947885418547</v>
+      </c>
+      <c r="D29">
+        <v>-0.0166060363998118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004375372506450019</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008755465371236625</v>
+      </c>
+      <c r="C30">
+        <v>-0.1370418678419102</v>
+      </c>
+      <c r="D30">
+        <v>-0.1106053071690341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-6.716213351892498e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006066827917036773</v>
+      </c>
+      <c r="C31">
+        <v>-0.04529174200233815</v>
+      </c>
+      <c r="D31">
+        <v>-0.03237027991769148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.002097291999252133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004032437391122093</v>
+      </c>
+      <c r="C32">
+        <v>-0.04140979688495115</v>
+      </c>
+      <c r="D32">
+        <v>-0.01356107935490951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003291410196823363</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007727373103788291</v>
+      </c>
+      <c r="C33">
+        <v>-0.08226703576660409</v>
+      </c>
+      <c r="D33">
+        <v>-0.07367787677993587</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004865993132222304</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003705581822632239</v>
+      </c>
+      <c r="C34">
+        <v>-0.05725136449617024</v>
+      </c>
+      <c r="D34">
+        <v>-0.0470084887296625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.003649433822887474</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004823094373479</v>
+      </c>
+      <c r="C35">
+        <v>-0.03873371367844483</v>
+      </c>
+      <c r="D35">
+        <v>-0.0128880037711514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004307945606762804</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001354060849105254</v>
+      </c>
+      <c r="C36">
+        <v>-0.02351359639058095</v>
+      </c>
+      <c r="D36">
+        <v>-0.02183969555098033</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002264469584287158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009352725270381829</v>
+      </c>
+      <c r="C38">
+        <v>-0.03257217052337338</v>
+      </c>
+      <c r="D38">
+        <v>-0.02171290639320772</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01334162296080112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0009350919299059881</v>
+      </c>
+      <c r="C39">
+        <v>-0.1148671447623412</v>
+      </c>
+      <c r="D39">
+        <v>-0.08472098869104838</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007662190635973933</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002365937554488629</v>
+      </c>
+      <c r="C40">
+        <v>-0.08697038835957331</v>
+      </c>
+      <c r="D40">
+        <v>-0.02410557920023826</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0002013890182683486</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007369882718925633</v>
+      </c>
+      <c r="C41">
+        <v>-0.03865180011324008</v>
+      </c>
+      <c r="D41">
+        <v>-0.03543279879931667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002877057656010807</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003364779718600139</v>
+      </c>
+      <c r="C43">
+        <v>-0.05019348274657402</v>
+      </c>
+      <c r="D43">
+        <v>-0.02756988165836439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004638431055540573</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003736611888937693</v>
+      </c>
+      <c r="C44">
+        <v>-0.1083776457130946</v>
+      </c>
+      <c r="D44">
+        <v>-0.08369122205513777</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002211934882690931</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.0023369338486125</v>
+      </c>
+      <c r="C46">
+        <v>-0.03461930343229639</v>
+      </c>
+      <c r="D46">
+        <v>-0.03352196510013497</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0007936519402761985</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002925356002011866</v>
+      </c>
+      <c r="C47">
+        <v>-0.0394052058722767</v>
+      </c>
+      <c r="D47">
+        <v>-0.02432934428675211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004138596673198645</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006413773904769249</v>
+      </c>
+      <c r="C48">
+        <v>-0.02866464219652335</v>
+      </c>
+      <c r="D48">
+        <v>-0.03038141171987753</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01271770290198323</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01411381650554365</v>
+      </c>
+      <c r="C49">
+        <v>-0.1709784285961825</v>
+      </c>
+      <c r="D49">
+        <v>-0.03347893559666589</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0001239445155333422</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003647186200078251</v>
+      </c>
+      <c r="C50">
+        <v>-0.04225403559407672</v>
+      </c>
+      <c r="D50">
+        <v>-0.03620445796563505</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001780261197654257</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004252728648867994</v>
+      </c>
+      <c r="C51">
+        <v>-0.01985687752208979</v>
+      </c>
+      <c r="D51">
+        <v>-0.03265336596706189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001205220497580696</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02041491045847147</v>
+      </c>
+      <c r="C53">
+        <v>-0.1655655145794213</v>
+      </c>
+      <c r="D53">
+        <v>-0.0508390415309944</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0001600722590471168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008558020592552597</v>
+      </c>
+      <c r="C54">
+        <v>-0.05513289901943638</v>
+      </c>
+      <c r="D54">
+        <v>-0.04264204889933399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004609449972858117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009358458750535308</v>
+      </c>
+      <c r="C55">
+        <v>-0.1053368047011012</v>
+      </c>
+      <c r="D55">
+        <v>-0.05267164883576816</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003516104939096881</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01964162710905806</v>
+      </c>
+      <c r="C56">
+        <v>-0.1713337066198697</v>
+      </c>
+      <c r="D56">
+        <v>-0.05068424057939704</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007994663410690979</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01955925633608918</v>
+      </c>
+      <c r="C58">
+        <v>-0.1028245631318282</v>
+      </c>
+      <c r="D58">
+        <v>-0.0750728865235198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.008722835066489095</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009692386836490765</v>
+      </c>
+      <c r="C59">
+        <v>-0.1696215845661362</v>
+      </c>
+      <c r="D59">
+        <v>0.281607611256905</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.006597631255001558</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02347650924932101</v>
+      </c>
+      <c r="C60">
+        <v>-0.2209886596729512</v>
+      </c>
+      <c r="D60">
+        <v>-0.02887216361211339</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01449003538805666</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001963623114295117</v>
+      </c>
+      <c r="C61">
+        <v>-0.09450250556999723</v>
+      </c>
+      <c r="D61">
+        <v>-0.06282481191037147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1808863320285133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1438367571764216</v>
+      </c>
+      <c r="C62">
+        <v>-0.0774541639267793</v>
+      </c>
+      <c r="D62">
+        <v>-0.05436286949058314</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001424488136945159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006376437854088213</v>
+      </c>
+      <c r="C63">
+        <v>-0.05896229455648666</v>
+      </c>
+      <c r="D63">
+        <v>-0.02644198959322129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.007014551569011311</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01470878025300535</v>
+      </c>
+      <c r="C64">
+        <v>-0.1025250361284669</v>
+      </c>
+      <c r="D64">
+        <v>-0.06424172332609349</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0007906558293872816</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01723069756919671</v>
+      </c>
+      <c r="C65">
+        <v>-0.1146367446258263</v>
+      </c>
+      <c r="D65">
+        <v>-0.02781745324489063</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008027990066247789</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01224296247070335</v>
+      </c>
+      <c r="C66">
+        <v>-0.1535181419532334</v>
+      </c>
+      <c r="D66">
+        <v>-0.1224556400834729</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002556718931480125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01543779288083567</v>
+      </c>
+      <c r="C67">
+        <v>-0.06222627696835923</v>
+      </c>
+      <c r="D67">
+        <v>-0.03276820611148976</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.009233541810744202</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001395586858999379</v>
+      </c>
+      <c r="C68">
+        <v>-0.1083909168779384</v>
+      </c>
+      <c r="D68">
+        <v>0.2617346811492043</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002550821087966783</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005855993528464057</v>
+      </c>
+      <c r="C69">
+        <v>-0.04751018460961783</v>
+      </c>
+      <c r="D69">
+        <v>-0.04225377185909221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001719773147519848</v>
+      </c>
+      <c r="C70">
+        <v>-0.00205170101909743</v>
+      </c>
+      <c r="D70">
+        <v>-0.002141794166251803</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.005464969793399322</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006271507734824803</v>
+      </c>
+      <c r="C71">
+        <v>-0.1113475172258174</v>
+      </c>
+      <c r="D71">
+        <v>0.2843369840936255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008657674228849775</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01543418905008605</v>
+      </c>
+      <c r="C72">
+        <v>-0.148565526807035</v>
+      </c>
+      <c r="D72">
+        <v>-0.02587607371352594</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01343375700712587</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02931006902435403</v>
+      </c>
+      <c r="C73">
+        <v>-0.2817000538498194</v>
+      </c>
+      <c r="D73">
+        <v>-0.04883086542420555</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00398642587415609</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001495067139678809</v>
+      </c>
+      <c r="C74">
+        <v>-0.1047950247092886</v>
+      </c>
+      <c r="D74">
+        <v>-0.0437850380312536</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.00617947550598843</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.0107231959966434</v>
+      </c>
+      <c r="C75">
+        <v>-0.1309124313496456</v>
+      </c>
+      <c r="D75">
+        <v>-0.03671865538588009</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01178594969401215</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02136481359326487</v>
+      </c>
+      <c r="C76">
+        <v>-0.146331184763267</v>
+      </c>
+      <c r="D76">
+        <v>-0.07354803834513934</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001746454322105224</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02443379346423612</v>
+      </c>
+      <c r="C77">
+        <v>-0.1335509333319836</v>
+      </c>
+      <c r="D77">
+        <v>-0.06437320471318551</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.000142113735228013</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01421600691917646</v>
+      </c>
+      <c r="C78">
+        <v>-0.09196712982560735</v>
+      </c>
+      <c r="D78">
+        <v>-0.06830088934345252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02634846719359463</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03687653169340782</v>
+      </c>
+      <c r="C79">
+        <v>-0.1560194080294059</v>
+      </c>
+      <c r="D79">
+        <v>-0.03545861622236259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005314839350143069</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01059418248667102</v>
+      </c>
+      <c r="C80">
+        <v>-0.0409447840780279</v>
+      </c>
+      <c r="D80">
+        <v>-0.03280966672507984</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0002339777849309998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01455711054992423</v>
+      </c>
+      <c r="C81">
+        <v>-0.1209587073790747</v>
+      </c>
+      <c r="D81">
+        <v>-0.05773804008349979</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006763603515824141</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.0195653043927166</v>
+      </c>
+      <c r="C82">
+        <v>-0.1419528307752374</v>
+      </c>
+      <c r="D82">
+        <v>-0.04747078674888455</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006118180790937858</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009703686475850891</v>
+      </c>
+      <c r="C83">
+        <v>-0.05342820188335926</v>
+      </c>
+      <c r="D83">
+        <v>-0.04845364742321746</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.0134956971498333</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01175708891764568</v>
+      </c>
+      <c r="C84">
+        <v>-0.03187038923897359</v>
+      </c>
+      <c r="D84">
+        <v>-0.001171186234034984</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01557488102874959</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02800605328830025</v>
+      </c>
+      <c r="C85">
+        <v>-0.1281306541700949</v>
+      </c>
+      <c r="D85">
+        <v>-0.05402455611585558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002952239428444992</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005589402056046116</v>
+      </c>
+      <c r="C86">
+        <v>-0.05013911105698932</v>
+      </c>
+      <c r="D86">
+        <v>-0.02205669567307243</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007353724606815068</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01013644027039446</v>
+      </c>
+      <c r="C87">
+        <v>-0.1278238859983119</v>
+      </c>
+      <c r="D87">
+        <v>-0.0805734052976141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01416754109531236</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002890364164261247</v>
+      </c>
+      <c r="C88">
+        <v>-0.06899121308560632</v>
+      </c>
+      <c r="D88">
+        <v>-0.01695632794924913</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01828715928616085</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0008696217167713706</v>
+      </c>
+      <c r="C89">
+        <v>-0.1621779305457771</v>
+      </c>
+      <c r="D89">
+        <v>0.3436205072995771</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.00506402280893536</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007570638284444831</v>
+      </c>
+      <c r="C90">
+        <v>-0.140478455091141</v>
+      </c>
+      <c r="D90">
+        <v>0.3157436967764513</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001868606196549716</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01028985840594311</v>
+      </c>
+      <c r="C91">
+        <v>-0.1047802790750525</v>
+      </c>
+      <c r="D91">
+        <v>-0.02043683880671162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01457620763919736</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0006585760642861711</v>
+      </c>
+      <c r="C92">
+        <v>-0.1514999168539865</v>
+      </c>
+      <c r="D92">
+        <v>0.3272652704569955</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.003767038672831533</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.00558372159743824</v>
+      </c>
+      <c r="C93">
+        <v>-0.1250379830499353</v>
+      </c>
+      <c r="D93">
+        <v>0.3144205488456304</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004304845251113402</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02231066812411499</v>
+      </c>
+      <c r="C94">
+        <v>-0.1559434474576021</v>
+      </c>
+      <c r="D94">
+        <v>-0.03764540132401892</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004741001676109731</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01596015187196384</v>
+      </c>
+      <c r="C95">
+        <v>-0.1237657468522032</v>
+      </c>
+      <c r="D95">
+        <v>-0.06882361141884628</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002502502148146251</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03457640243748164</v>
+      </c>
+      <c r="C97">
+        <v>-0.1787368135568143</v>
+      </c>
+      <c r="D97">
+        <v>-0.04084052118548635</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.006393110646892265</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03563767016829687</v>
+      </c>
+      <c r="C98">
+        <v>-0.2534867953006856</v>
+      </c>
+      <c r="D98">
+        <v>-0.04393716636475022</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.981136008422104</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9826775757190493</v>
+      </c>
+      <c r="C99">
+        <v>0.1100327124573474</v>
+      </c>
+      <c r="D99">
+        <v>0.0323517225362124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.002409852565563952</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003332357063680959</v>
+      </c>
+      <c r="C101">
+        <v>-0.04828534792860937</v>
+      </c>
+      <c r="D101">
+        <v>-0.01696590112960527</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
